--- a/Code/Results/Cases/Case_5_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83831150217408</v>
+        <v>17.30599947411284</v>
       </c>
       <c r="C2">
-        <v>19.04964428315385</v>
+        <v>14.91255542715753</v>
       </c>
       <c r="D2">
-        <v>2.617782393731135</v>
+        <v>6.003839878556672</v>
       </c>
       <c r="E2">
-        <v>6.535176522632676</v>
+        <v>11.51856082462967</v>
       </c>
       <c r="F2">
-        <v>43.02831529323011</v>
+        <v>47.21339889380204</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>26.21054848405228</v>
+        <v>30.9263124588765</v>
       </c>
       <c r="J2">
-        <v>5.962464812532854</v>
+        <v>9.994734767596624</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.29003788574884</v>
+        <v>19.22609602362512</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.34438193035546</v>
+        <v>16.95595404734565</v>
       </c>
       <c r="C3">
-        <v>17.68871933796327</v>
+        <v>14.54505901709155</v>
       </c>
       <c r="D3">
-        <v>2.591625751554314</v>
+        <v>6.007956793367824</v>
       </c>
       <c r="E3">
-        <v>6.517969486974512</v>
+        <v>11.54033031234053</v>
       </c>
       <c r="F3">
-        <v>41.3328547553628</v>
+        <v>46.95490457852198</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>25.50903995685008</v>
+        <v>30.84837308728994</v>
       </c>
       <c r="J3">
-        <v>5.980138926097966</v>
+        <v>10.01472407255172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.54312571953017</v>
+        <v>19.14821252242033</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.38122567128039</v>
+        <v>16.74316502880965</v>
       </c>
       <c r="C4">
-        <v>16.85667729500087</v>
+        <v>14.31988694452883</v>
       </c>
       <c r="D4">
-        <v>2.576378827476527</v>
+        <v>6.010771525705141</v>
       </c>
       <c r="E4">
-        <v>6.510357643091488</v>
+        <v>11.55504241591248</v>
       </c>
       <c r="F4">
-        <v>40.30317121665499</v>
+        <v>46.8073777819893</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>25.09485124175447</v>
+        <v>30.80705852837171</v>
       </c>
       <c r="J4">
-        <v>5.993487403322934</v>
+        <v>10.02803715559496</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.07832416035463</v>
+        <v>19.10509357052719</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.97701794145714</v>
+        <v>16.65712767487054</v>
       </c>
       <c r="C5">
-        <v>16.50969041790777</v>
+        <v>14.22840015692864</v>
       </c>
       <c r="D5">
-        <v>2.570349692287046</v>
+        <v>6.011990849538551</v>
       </c>
       <c r="E5">
-        <v>6.50797792014986</v>
+        <v>11.56137640673815</v>
       </c>
       <c r="F5">
-        <v>39.88666681022615</v>
+        <v>46.7501059617677</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>24.93015827493041</v>
+        <v>30.79186855151279</v>
       </c>
       <c r="J5">
-        <v>5.999532741560511</v>
+        <v>10.0337238605642</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.88755296655489</v>
+        <v>19.08871772725796</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.90918726230285</v>
+        <v>16.64288610416667</v>
       </c>
       <c r="C6">
-        <v>16.4515964310335</v>
+        <v>14.21322989339798</v>
       </c>
       <c r="D6">
-        <v>2.569359122918035</v>
+        <v>6.012197688344459</v>
       </c>
       <c r="E6">
-        <v>6.507625804253078</v>
+        <v>11.56244862693671</v>
       </c>
       <c r="F6">
-        <v>39.81770216331214</v>
+        <v>46.74076880942214</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>24.90305642125482</v>
+        <v>30.78944569143558</v>
       </c>
       <c r="J6">
-        <v>6.000572535514801</v>
+        <v>10.03468393167081</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.85579999726352</v>
+        <v>19.08607108948771</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37582203369157</v>
+        <v>16.7420017796493</v>
       </c>
       <c r="C7">
-        <v>16.85202973264133</v>
+        <v>14.31865181120771</v>
       </c>
       <c r="D7">
-        <v>2.576296796399471</v>
+        <v>6.010787676987774</v>
       </c>
       <c r="E7">
-        <v>6.510322651684499</v>
+        <v>11.55512646654187</v>
       </c>
       <c r="F7">
-        <v>40.29754116989583</v>
+        <v>46.80659382911445</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>25.09261365020668</v>
+        <v>30.80684700591389</v>
       </c>
       <c r="J7">
-        <v>5.993566508261799</v>
+        <v>10.02811278948539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.07575656986627</v>
+        <v>19.10486786354656</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.33261332937509</v>
+        <v>17.1849417846218</v>
       </c>
       <c r="C8">
-        <v>18.58610112331741</v>
+        <v>14.78583557908038</v>
       </c>
       <c r="D8">
-        <v>2.608581766320321</v>
+        <v>6.005199924541668</v>
       </c>
       <c r="E8">
-        <v>6.528617935387149</v>
+        <v>11.52578788036137</v>
       </c>
       <c r="F8">
-        <v>42.44149790330834</v>
+        <v>47.12196869601308</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>25.96519271785259</v>
+        <v>30.89808278264798</v>
       </c>
       <c r="J8">
-        <v>5.968026917136624</v>
+        <v>10.00141138196097</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.03389212282099</v>
+        <v>19.19827428401732</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.814964805</v>
+        <v>18.06457266199416</v>
       </c>
       <c r="C9">
-        <v>21.79493919992974</v>
+        <v>15.69922619141932</v>
       </c>
       <c r="D9">
-        <v>2.679400061467561</v>
+        <v>5.996513010070069</v>
       </c>
       <c r="E9">
-        <v>6.588910758868356</v>
+        <v>11.4789165512848</v>
       </c>
       <c r="F9">
-        <v>46.72862958068342</v>
+        <v>47.82755166858816</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>27.81126999388622</v>
+        <v>31.12876371614958</v>
       </c>
       <c r="J9">
-        <v>5.938837988757251</v>
+        <v>9.957293919893376</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.96733989589213</v>
+        <v>19.4181035575444</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.17153112341103</v>
+        <v>18.70981898364641</v>
       </c>
       <c r="C10">
-        <v>23.98747392599936</v>
+        <v>16.36037258554948</v>
       </c>
       <c r="D10">
-        <v>2.737717774245013</v>
+        <v>5.991507554871694</v>
       </c>
       <c r="E10">
-        <v>6.649571884549851</v>
+        <v>11.45096006215017</v>
       </c>
       <c r="F10">
-        <v>49.9264369368313</v>
+        <v>48.39656286102626</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>29.25685750881923</v>
+        <v>31.3295344892484</v>
       </c>
       <c r="J10">
-        <v>5.931801721770086</v>
+        <v>9.929900547935816</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.64031354137775</v>
+        <v>19.6009985650148</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.20350990923901</v>
+        <v>19.00159310800284</v>
       </c>
       <c r="C11">
-        <v>24.95275780771068</v>
+        <v>16.65740348452536</v>
       </c>
       <c r="D11">
-        <v>2.766077967371706</v>
+        <v>5.989527976062719</v>
       </c>
       <c r="E11">
-        <v>6.68108851748721</v>
+        <v>11.43964472229599</v>
       </c>
       <c r="F11">
-        <v>51.39346880828256</v>
+        <v>48.66579617806083</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>29.936154754634</v>
+        <v>31.42757284444646</v>
       </c>
       <c r="J11">
-        <v>5.932154232656432</v>
+        <v>9.918527386381012</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.37320351523238</v>
+        <v>19.6886131602659</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.58889933511518</v>
+        <v>19.11170809485709</v>
       </c>
       <c r="C12">
-        <v>25.31403857786036</v>
+        <v>16.76922498163942</v>
       </c>
       <c r="D12">
-        <v>2.777127439057609</v>
+        <v>5.988821019681295</v>
       </c>
       <c r="E12">
-        <v>6.693621567802229</v>
+        <v>11.4355611752358</v>
       </c>
       <c r="F12">
-        <v>51.95109983093126</v>
+        <v>48.76918395575424</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>30.19676497045586</v>
+        <v>31.46565123484247</v>
       </c>
       <c r="J12">
-        <v>5.932839361550246</v>
+        <v>9.914377070873229</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.64695128113783</v>
+        <v>19.72240384149387</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.50613267638789</v>
+        <v>19.08801133884682</v>
       </c>
       <c r="C13">
-        <v>25.23641288280814</v>
+        <v>16.74517330884036</v>
       </c>
       <c r="D13">
-        <v>2.774733115108808</v>
+        <v>5.988971379325928</v>
       </c>
       <c r="E13">
-        <v>6.690895142097466</v>
+        <v>11.43643169111445</v>
       </c>
       <c r="F13">
-        <v>51.83090381964129</v>
+        <v>48.74685469515209</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>30.14048294804095</v>
+        <v>31.45740816207791</v>
       </c>
       <c r="J13">
-        <v>5.932666569108905</v>
+        <v>9.915263957717638</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.58815836473203</v>
+        <v>19.71509951321244</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.23532209084718</v>
+        <v>19.01066049279146</v>
       </c>
       <c r="C14">
-        <v>24.9825634789959</v>
+        <v>16.66661695046903</v>
       </c>
       <c r="D14">
-        <v>2.766980502956886</v>
+        <v>5.989468959786434</v>
       </c>
       <c r="E14">
-        <v>6.682107413621558</v>
+        <v>11.43930473333618</v>
       </c>
       <c r="F14">
-        <v>51.43930097327454</v>
+        <v>48.6742735412582</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>29.95752595287113</v>
+        <v>31.43068653791804</v>
       </c>
       <c r="J14">
-        <v>5.932199291518176</v>
+        <v>9.918182802027642</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.39579904580426</v>
+        <v>19.69138098503816</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06875123278857</v>
+        <v>18.96322872728141</v>
       </c>
       <c r="C15">
-        <v>24.8265316607996</v>
+        <v>16.61840981510671</v>
       </c>
       <c r="D15">
-        <v>2.762273710406001</v>
+        <v>5.989779295772767</v>
       </c>
       <c r="E15">
-        <v>6.676803700151519</v>
+        <v>11.44109076400641</v>
       </c>
       <c r="F15">
-        <v>51.19971848407796</v>
+        <v>48.63000056772413</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>29.84590784534602</v>
+        <v>31.41444257713562</v>
       </c>
       <c r="J15">
-        <v>5.931986205204335</v>
+        <v>9.919991052480345</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.27748943265765</v>
+        <v>19.67693185572198</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10331280265896</v>
+        <v>18.69070505486521</v>
       </c>
       <c r="C16">
-        <v>23.92377414152718</v>
+        <v>16.34087529875236</v>
       </c>
       <c r="D16">
-        <v>2.73590503706948</v>
+        <v>5.991642901097876</v>
       </c>
       <c r="E16">
-        <v>6.647593961864717</v>
+        <v>11.45172773597124</v>
       </c>
       <c r="F16">
-        <v>49.83083528871676</v>
+        <v>48.37917190235643</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>29.21292064116857</v>
+        <v>31.32326150249447</v>
       </c>
       <c r="J16">
-        <v>5.931853549655842</v>
+        <v>9.930665705895873</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.59187294566478</v>
+        <v>19.59535973394322</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.50103358448472</v>
+        <v>18.52298325354576</v>
       </c>
       <c r="C17">
-        <v>23.36197924236383</v>
+        <v>16.16957262883157</v>
       </c>
       <c r="D17">
-        <v>2.720228591684684</v>
+        <v>5.992862266029611</v>
       </c>
       <c r="E17">
-        <v>6.630702382371892</v>
+        <v>11.45861209519088</v>
       </c>
       <c r="F17">
-        <v>48.99441066575329</v>
+        <v>48.22791631494118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>28.83032026113281</v>
+        <v>31.26903528289908</v>
       </c>
       <c r="J17">
-        <v>5.932709658692432</v>
+        <v>9.937492956927468</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.16423768501798</v>
+        <v>19.54643336957711</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.15082607277147</v>
+        <v>18.4263560940541</v>
       </c>
       <c r="C18">
-        <v>23.03580193145666</v>
+        <v>16.07069966837128</v>
       </c>
       <c r="D18">
-        <v>2.711381052756901</v>
+        <v>5.993591613551974</v>
       </c>
       <c r="E18">
-        <v>6.621353624253555</v>
+        <v>11.46270379792838</v>
       </c>
       <c r="F18">
-        <v>48.51445380393314</v>
+        <v>48.1418995293953</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>28.61228141589503</v>
+        <v>31.23847782757118</v>
       </c>
       <c r="J18">
-        <v>5.933533817489746</v>
+        <v>9.941522241404535</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.91560535368227</v>
+        <v>19.51870913882529</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.03159033633738</v>
+        <v>18.39361647727131</v>
       </c>
       <c r="C19">
-        <v>22.92483024905374</v>
+        <v>16.03716772240432</v>
       </c>
       <c r="D19">
-        <v>2.708413177551764</v>
+        <v>5.993843370533387</v>
       </c>
       <c r="E19">
-        <v>6.618250315818157</v>
+        <v>11.46411185881605</v>
       </c>
       <c r="F19">
-        <v>48.35213580564745</v>
+        <v>48.11294602146576</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>28.53879792996004</v>
+        <v>31.22824045998492</v>
       </c>
       <c r="J19">
-        <v>5.93386868259588</v>
+        <v>9.942904081347201</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.83095693816633</v>
+        <v>19.50939444626687</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.56553729725377</v>
+        <v>18.54085478268408</v>
       </c>
       <c r="C20">
-        <v>23.42209623559073</v>
+        <v>16.18784462344628</v>
       </c>
       <c r="D20">
-        <v>2.721879556997167</v>
+        <v>5.992729565310338</v>
       </c>
       <c r="E20">
-        <v>6.632462317838376</v>
+        <v>11.45786558397353</v>
       </c>
       <c r="F20">
-        <v>49.08333043897969</v>
+        <v>48.24391657171353</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>28.87083774167202</v>
+        <v>31.27474241846818</v>
       </c>
       <c r="J20">
-        <v>5.932583911144811</v>
+        <v>9.936755583489532</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.21003447704166</v>
+        <v>19.55159867014394</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.31500913141789</v>
+        <v>19.03339138430209</v>
       </c>
       <c r="C21">
-        <v>25.0572373561843</v>
+        <v>16.68970962904896</v>
       </c>
       <c r="D21">
-        <v>2.769248804778389</v>
+        <v>5.98932165115705</v>
       </c>
       <c r="E21">
-        <v>6.684672046188457</v>
+        <v>11.43845538975019</v>
       </c>
       <c r="F21">
-        <v>51.55426390288449</v>
+        <v>48.69555392428742</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>30.01117086546133</v>
+        <v>31.43850954757136</v>
       </c>
       <c r="J21">
-        <v>5.932321221056277</v>
+        <v>9.917321220822316</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.45239997340661</v>
+        <v>19.69833123662745</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42712785959648</v>
+        <v>19.3530637757601</v>
       </c>
       <c r="C22">
-        <v>26.10133303771255</v>
+        <v>17.01382421664796</v>
       </c>
       <c r="D22">
-        <v>2.80204258735961</v>
+        <v>5.987343035931986</v>
       </c>
       <c r="E22">
-        <v>6.722301292977408</v>
+        <v>11.42694304197228</v>
       </c>
       <c r="F22">
-        <v>53.18165987017458</v>
+        <v>48.9990597743534</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>30.77629022654382</v>
+        <v>31.55109171891118</v>
       </c>
       <c r="J22">
-        <v>5.93538770393459</v>
+        <v>9.905531661524863</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.24246551737613</v>
+        <v>19.79779122209792</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.83629756655001</v>
+        <v>19.18269091916511</v>
       </c>
       <c r="C23">
-        <v>25.54618951858837</v>
+        <v>16.84123125621254</v>
       </c>
       <c r="D23">
-        <v>2.784354363682594</v>
+        <v>5.988376340561331</v>
       </c>
       <c r="E23">
-        <v>6.701884377383297</v>
+        <v>11.43298014247885</v>
       </c>
       <c r="F23">
-        <v>52.31179434060361</v>
+        <v>48.83633053885017</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>30.36601185296294</v>
+        <v>31.49050063726097</v>
       </c>
       <c r="J23">
-        <v>5.933439936862063</v>
+        <v>9.91174054018974</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.82269800035491</v>
+        <v>19.74438915839003</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.53638749587305</v>
+        <v>18.53277568318595</v>
       </c>
       <c r="C24">
-        <v>23.39492731817937</v>
+        <v>16.17958505629757</v>
       </c>
       <c r="D24">
-        <v>2.721132644868465</v>
+        <v>5.99278947109239</v>
       </c>
       <c r="E24">
-        <v>6.631665524647498</v>
+        <v>11.45820266493663</v>
       </c>
       <c r="F24">
-        <v>49.04312698249168</v>
+        <v>48.23667991688506</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>28.85251381672042</v>
+        <v>31.27216029697536</v>
       </c>
       <c r="J24">
-        <v>5.932639730607764</v>
+        <v>9.937088625437298</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.18933842337071</v>
+        <v>19.54926217715532</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90950681759318</v>
+        <v>17.82624497785569</v>
       </c>
       <c r="C25">
-        <v>20.95692329231854</v>
+        <v>15.45330496409028</v>
       </c>
       <c r="D25">
-        <v>2.659276645417823</v>
+        <v>5.99862075213244</v>
       </c>
       <c r="E25">
-        <v>6.569840760332843</v>
+        <v>11.49045710355245</v>
       </c>
       <c r="F25">
-        <v>45.56061006182783</v>
+        <v>47.62758600425985</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>27.29679573945537</v>
+        <v>31.06083744745467</v>
       </c>
       <c r="J25">
-        <v>5.944335456638902</v>
+        <v>9.968346919989317</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.37072013542143</v>
+        <v>19.35480307913805</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30599947411284</v>
+        <v>20.83831150217406</v>
       </c>
       <c r="C2">
-        <v>14.91255542715753</v>
+        <v>19.04964428315376</v>
       </c>
       <c r="D2">
-        <v>6.003839878556672</v>
+        <v>2.6177823937312</v>
       </c>
       <c r="E2">
-        <v>11.51856082462967</v>
+        <v>6.535176522632678</v>
       </c>
       <c r="F2">
-        <v>47.21339889380204</v>
+        <v>43.02831529323038</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>30.9263124588765</v>
+        <v>26.21054848405242</v>
       </c>
       <c r="J2">
-        <v>9.994734767596624</v>
+        <v>5.962464812532807</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.22609602362512</v>
+        <v>15.29003788574886</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.95595404734565</v>
+        <v>19.34438193035545</v>
       </c>
       <c r="C3">
-        <v>14.54505901709155</v>
+        <v>17.68871933796322</v>
       </c>
       <c r="D3">
-        <v>6.007956793367824</v>
+        <v>2.591625751554247</v>
       </c>
       <c r="E3">
-        <v>11.54033031234053</v>
+        <v>6.517969486974459</v>
       </c>
       <c r="F3">
-        <v>46.95490457852198</v>
+        <v>41.33285475536295</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>30.84837308728994</v>
+        <v>25.50903995685017</v>
       </c>
       <c r="J3">
-        <v>10.01472407255172</v>
+        <v>5.980138926097966</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.14821252242033</v>
+        <v>14.5431257195302</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.74316502880965</v>
+        <v>18.38122567128041</v>
       </c>
       <c r="C4">
-        <v>14.31988694452883</v>
+        <v>16.85667729500084</v>
       </c>
       <c r="D4">
-        <v>6.010771525705141</v>
+        <v>2.57637882747639</v>
       </c>
       <c r="E4">
-        <v>11.55504241591248</v>
+        <v>6.510357643091477</v>
       </c>
       <c r="F4">
-        <v>46.8073777819893</v>
+        <v>40.30317121665501</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>30.80705852837171</v>
+        <v>25.09485124175446</v>
       </c>
       <c r="J4">
-        <v>10.02803715559496</v>
+        <v>5.993487403322998</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.10509357052719</v>
+        <v>14.07832416035462</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.65712767487054</v>
+        <v>17.97701794145713</v>
       </c>
       <c r="C5">
-        <v>14.22840015692864</v>
+        <v>16.50969041790774</v>
       </c>
       <c r="D5">
-        <v>6.011990849538551</v>
+        <v>2.570349692287111</v>
       </c>
       <c r="E5">
-        <v>11.56137640673815</v>
+        <v>6.507977920149806</v>
       </c>
       <c r="F5">
-        <v>46.7501059617677</v>
+        <v>39.88666681022629</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>30.79186855151279</v>
+        <v>24.93015827493051</v>
       </c>
       <c r="J5">
-        <v>10.0337238605642</v>
+        <v>5.99953274156046</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.08871772725796</v>
+        <v>13.88755296655488</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.64288610416667</v>
+        <v>17.90918726230281</v>
       </c>
       <c r="C6">
-        <v>14.21322989339798</v>
+        <v>16.45159643103355</v>
       </c>
       <c r="D6">
-        <v>6.012197688344459</v>
+        <v>2.569359122917835</v>
       </c>
       <c r="E6">
-        <v>11.56244862693671</v>
+        <v>6.507625804253014</v>
       </c>
       <c r="F6">
-        <v>46.74076880942214</v>
+        <v>39.81770216331219</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>30.78944569143558</v>
+        <v>24.90305642125497</v>
       </c>
       <c r="J6">
-        <v>10.03468393167081</v>
+        <v>6.000572535514826</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.08607108948771</v>
+        <v>13.85579999726353</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.7420017796493</v>
+        <v>18.37582203369158</v>
       </c>
       <c r="C7">
-        <v>14.31865181120771</v>
+        <v>16.85202973264126</v>
       </c>
       <c r="D7">
-        <v>6.010787676987774</v>
+        <v>2.576296796399138</v>
       </c>
       <c r="E7">
-        <v>11.55512646654187</v>
+        <v>6.510322651684332</v>
       </c>
       <c r="F7">
-        <v>46.80659382911445</v>
+        <v>40.29754116989567</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>30.80684700591389</v>
+        <v>25.09261365020662</v>
       </c>
       <c r="J7">
-        <v>10.02811278948539</v>
+        <v>5.993566508261797</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.10486786354656</v>
+        <v>14.07575656986621</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.1849417846218</v>
+        <v>20.33261332937513</v>
       </c>
       <c r="C8">
-        <v>14.78583557908038</v>
+        <v>18.58610112331737</v>
       </c>
       <c r="D8">
-        <v>6.005199924541668</v>
+        <v>2.608581766320322</v>
       </c>
       <c r="E8">
-        <v>11.52578788036137</v>
+        <v>6.528617935387262</v>
       </c>
       <c r="F8">
-        <v>47.12196869601308</v>
+        <v>42.44149790330841</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>30.89808278264798</v>
+        <v>25.96519271785254</v>
       </c>
       <c r="J8">
-        <v>10.00141138196097</v>
+        <v>5.968026917136712</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.19827428401732</v>
+        <v>15.03389212282102</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.06457266199416</v>
+        <v>23.81496480500002</v>
       </c>
       <c r="C9">
-        <v>15.69922619141932</v>
+        <v>21.7949391999295</v>
       </c>
       <c r="D9">
-        <v>5.996513010070069</v>
+        <v>2.679400061467427</v>
       </c>
       <c r="E9">
-        <v>11.4789165512848</v>
+        <v>6.588910758868232</v>
       </c>
       <c r="F9">
-        <v>47.82755166858816</v>
+        <v>46.72862958068356</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>31.12876371614958</v>
+        <v>27.81126999388632</v>
       </c>
       <c r="J9">
-        <v>9.957293919893376</v>
+        <v>5.938837988757206</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.4181035575444</v>
+        <v>16.96733989589215</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.70981898364641</v>
+        <v>26.17153112341108</v>
       </c>
       <c r="C10">
-        <v>16.36037258554948</v>
+        <v>23.98747392599934</v>
       </c>
       <c r="D10">
-        <v>5.991507554871694</v>
+        <v>2.737717774244877</v>
       </c>
       <c r="E10">
-        <v>11.45096006215017</v>
+        <v>6.649571884549882</v>
       </c>
       <c r="F10">
-        <v>48.39656286102626</v>
+        <v>49.92643693683129</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>31.3295344892484</v>
+        <v>29.25685750881921</v>
       </c>
       <c r="J10">
-        <v>9.929900547935816</v>
+        <v>5.931801721770158</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.6009985650148</v>
+        <v>18.64031354137775</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.00159310800284</v>
+        <v>27.20350990923898</v>
       </c>
       <c r="C11">
-        <v>16.65740348452536</v>
+        <v>24.95275780771062</v>
       </c>
       <c r="D11">
-        <v>5.989527976062719</v>
+        <v>2.7660779673719</v>
       </c>
       <c r="E11">
-        <v>11.43964472229599</v>
+        <v>6.681088517487186</v>
       </c>
       <c r="F11">
-        <v>48.66579617806083</v>
+        <v>51.39346880828245</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>31.42757284444646</v>
+        <v>29.93615475463399</v>
       </c>
       <c r="J11">
-        <v>9.918527386381012</v>
+        <v>5.93215423265639</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.6886131602659</v>
+        <v>19.3732035152323</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.11170809485709</v>
+        <v>27.58889933511512</v>
       </c>
       <c r="C12">
-        <v>16.76922498163942</v>
+        <v>25.31403857786038</v>
       </c>
       <c r="D12">
-        <v>5.988821019681295</v>
+        <v>2.777127439057408</v>
       </c>
       <c r="E12">
-        <v>11.4355611752358</v>
+        <v>6.693621567802266</v>
       </c>
       <c r="F12">
-        <v>48.76918395575424</v>
+        <v>51.95109983093126</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>31.46565123484247</v>
+        <v>30.19676497045592</v>
       </c>
       <c r="J12">
-        <v>9.914377070873229</v>
+        <v>5.932839361550291</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.72240384149387</v>
+        <v>19.6469512811378</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.08801133884682</v>
+        <v>27.50613267638776</v>
       </c>
       <c r="C13">
-        <v>16.74517330884036</v>
+        <v>25.23641288280818</v>
       </c>
       <c r="D13">
-        <v>5.988971379325928</v>
+        <v>2.774733115108674</v>
       </c>
       <c r="E13">
-        <v>11.43643169111445</v>
+        <v>6.690895142097491</v>
       </c>
       <c r="F13">
-        <v>48.74685469515209</v>
+        <v>51.83090381964131</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>31.45740816207791</v>
+        <v>30.14048294804102</v>
       </c>
       <c r="J13">
-        <v>9.915263957717638</v>
+        <v>5.93266656910895</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.71509951321244</v>
+        <v>19.58815836473196</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.01066049279146</v>
+        <v>27.23532209084713</v>
       </c>
       <c r="C14">
-        <v>16.66661695046903</v>
+        <v>24.98256347899597</v>
       </c>
       <c r="D14">
-        <v>5.989468959786434</v>
+        <v>2.766980502956814</v>
       </c>
       <c r="E14">
-        <v>11.43930473333618</v>
+        <v>6.682107413621424</v>
       </c>
       <c r="F14">
-        <v>48.6742735412582</v>
+        <v>51.4393009732749</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>31.43068653791804</v>
+        <v>29.95752595287139</v>
       </c>
       <c r="J14">
-        <v>9.918182802027642</v>
+        <v>5.932199291518148</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.69138098503816</v>
+        <v>19.39579904580428</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.96322872728141</v>
+        <v>27.06875123278867</v>
       </c>
       <c r="C15">
-        <v>16.61840981510671</v>
+        <v>24.82653166079974</v>
       </c>
       <c r="D15">
-        <v>5.989779295772767</v>
+        <v>2.762273710406267</v>
       </c>
       <c r="E15">
-        <v>11.44109076400641</v>
+        <v>6.676803700151565</v>
       </c>
       <c r="F15">
-        <v>48.63000056772413</v>
+        <v>51.19971848407808</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>31.41444257713562</v>
+        <v>29.84590784534607</v>
       </c>
       <c r="J15">
-        <v>9.919991052480345</v>
+        <v>5.931986205204339</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.67693185572198</v>
+        <v>19.27748943265771</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.69070505486521</v>
+        <v>26.10331280265898</v>
       </c>
       <c r="C16">
-        <v>16.34087529875236</v>
+        <v>23.92377414152722</v>
       </c>
       <c r="D16">
-        <v>5.991642901097876</v>
+        <v>2.735905037069281</v>
       </c>
       <c r="E16">
-        <v>11.45172773597124</v>
+        <v>6.647593961864675</v>
       </c>
       <c r="F16">
-        <v>48.37917190235643</v>
+        <v>49.83083528871672</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>31.32326150249447</v>
+        <v>29.21292064116856</v>
       </c>
       <c r="J16">
-        <v>9.930665705895873</v>
+        <v>5.931853549655862</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.59535973394322</v>
+        <v>18.59187294566481</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52298325354576</v>
+        <v>25.50103358448473</v>
       </c>
       <c r="C17">
-        <v>16.16957262883157</v>
+        <v>23.3619792423639</v>
       </c>
       <c r="D17">
-        <v>5.992862266029611</v>
+        <v>2.72022859168468</v>
       </c>
       <c r="E17">
-        <v>11.45861209519088</v>
+        <v>6.630702382371831</v>
       </c>
       <c r="F17">
-        <v>48.22791631494118</v>
+        <v>48.99441066575324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>31.26903528289908</v>
+        <v>28.83032026113285</v>
       </c>
       <c r="J17">
-        <v>9.937492956927468</v>
+        <v>5.932709658692354</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.54643336957711</v>
+        <v>18.16423768501803</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.4263560940541</v>
+        <v>25.1508260727715</v>
       </c>
       <c r="C18">
-        <v>16.07069966837128</v>
+        <v>23.03580193145682</v>
       </c>
       <c r="D18">
-        <v>5.993591613551974</v>
+        <v>2.711381052756898</v>
       </c>
       <c r="E18">
-        <v>11.46270379792838</v>
+        <v>6.62135362425354</v>
       </c>
       <c r="F18">
-        <v>48.1418995293953</v>
+        <v>48.51445380393336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>31.23847782757118</v>
+        <v>28.61228141589517</v>
       </c>
       <c r="J18">
-        <v>9.941522241404535</v>
+        <v>5.933533817489749</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.51870913882529</v>
+        <v>17.91560535368233</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.39361647727131</v>
+        <v>25.03159033633759</v>
       </c>
       <c r="C19">
-        <v>16.03716772240432</v>
+        <v>22.92483024905376</v>
       </c>
       <c r="D19">
-        <v>5.993843370533387</v>
+        <v>2.70841317755183</v>
       </c>
       <c r="E19">
-        <v>11.46411185881605</v>
+        <v>6.618250315818057</v>
       </c>
       <c r="F19">
-        <v>48.11294602146576</v>
+        <v>48.3521358056475</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>31.22824045998492</v>
+        <v>28.53879792996001</v>
       </c>
       <c r="J19">
-        <v>9.942904081347201</v>
+        <v>5.933868682595939</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.50939444626687</v>
+        <v>17.83095693816644</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.54085478268408</v>
+        <v>25.56553729725384</v>
       </c>
       <c r="C20">
-        <v>16.18784462344628</v>
+        <v>23.42209623559079</v>
       </c>
       <c r="D20">
-        <v>5.992729565310338</v>
+        <v>2.721879556997227</v>
       </c>
       <c r="E20">
-        <v>11.45786558397353</v>
+        <v>6.632462317838414</v>
       </c>
       <c r="F20">
-        <v>48.24391657171353</v>
+        <v>49.08333043897987</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>31.27474241846818</v>
+        <v>28.87083774167214</v>
       </c>
       <c r="J20">
-        <v>9.936755583489532</v>
+        <v>5.932583911144822</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.55159867014394</v>
+        <v>18.21003447704171</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.03339138430209</v>
+        <v>27.31500913141814</v>
       </c>
       <c r="C21">
-        <v>16.68970962904896</v>
+        <v>25.05723735618431</v>
       </c>
       <c r="D21">
-        <v>5.98932165115705</v>
+        <v>2.769248804778448</v>
       </c>
       <c r="E21">
-        <v>11.43845538975019</v>
+        <v>6.68467204618849</v>
       </c>
       <c r="F21">
-        <v>48.69555392428742</v>
+        <v>51.55426390288469</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>31.43850954757136</v>
+        <v>30.0111708654614</v>
       </c>
       <c r="J21">
-        <v>9.917321220822316</v>
+        <v>5.932321221056383</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.69833123662745</v>
+        <v>19.4523999734067</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.3530637757601</v>
+        <v>28.42712785959646</v>
       </c>
       <c r="C22">
-        <v>17.01382421664796</v>
+        <v>26.10133303771243</v>
       </c>
       <c r="D22">
-        <v>5.987343035931986</v>
+        <v>2.802042587359475</v>
       </c>
       <c r="E22">
-        <v>11.42694304197228</v>
+        <v>6.722301292977358</v>
       </c>
       <c r="F22">
-        <v>48.9990597743534</v>
+        <v>53.18165987017463</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>31.55109171891118</v>
+        <v>30.77629022654387</v>
       </c>
       <c r="J22">
-        <v>9.905531661524863</v>
+        <v>5.935387703934616</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.79779122209792</v>
+        <v>20.24246551737611</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.18269091916511</v>
+        <v>27.83629756654996</v>
       </c>
       <c r="C23">
-        <v>16.84123125621254</v>
+        <v>25.54618951858843</v>
       </c>
       <c r="D23">
-        <v>5.988376340561331</v>
+        <v>2.784354363682596</v>
       </c>
       <c r="E23">
-        <v>11.43298014247885</v>
+        <v>6.70188437738337</v>
       </c>
       <c r="F23">
-        <v>48.83633053885017</v>
+        <v>52.31179434060358</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>31.49050063726097</v>
+        <v>30.36601185296292</v>
       </c>
       <c r="J23">
-        <v>9.91174054018974</v>
+        <v>5.933439936862126</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.74438915839003</v>
+        <v>19.82269800035486</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.53277568318595</v>
+        <v>25.53638749587308</v>
       </c>
       <c r="C24">
-        <v>16.17958505629757</v>
+        <v>23.39492731817943</v>
       </c>
       <c r="D24">
-        <v>5.99278947109239</v>
+        <v>2.721132644868528</v>
       </c>
       <c r="E24">
-        <v>11.45820266493663</v>
+        <v>6.631665524647579</v>
       </c>
       <c r="F24">
-        <v>48.23667991688506</v>
+        <v>49.04312698249175</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>31.27216029697536</v>
+        <v>28.85251381672045</v>
       </c>
       <c r="J24">
-        <v>9.937088625437298</v>
+        <v>5.932639730607855</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.54926217715532</v>
+        <v>18.1893384233707</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.82624497785569</v>
+        <v>22.90950681759314</v>
       </c>
       <c r="C25">
-        <v>15.45330496409028</v>
+        <v>20.95692329231858</v>
       </c>
       <c r="D25">
-        <v>5.99862075213244</v>
+        <v>2.659276645417825</v>
       </c>
       <c r="E25">
-        <v>11.49045710355245</v>
+        <v>6.569840760332872</v>
       </c>
       <c r="F25">
-        <v>47.62758600425985</v>
+        <v>45.56061006182783</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>31.06083744745467</v>
+        <v>27.29679573945545</v>
       </c>
       <c r="J25">
-        <v>9.968346919989317</v>
+        <v>5.944335456638969</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.35480307913805</v>
+        <v>16.37072013542141</v>
       </c>
       <c r="N25">
         <v>0</v>
